--- a/bio_convention_2025-preenchida.xlsx
+++ b/bio_convention_2025-preenchida.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - svriglobal.com\projetos python\webscrapping bioconvention2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="279" documentId="8_{84D40B20-1EE2-4DDC-AC3C-910195B76512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF12CFB6-5DEB-4F30-8156-467B5CD39EFD}"/>
+  <xr:revisionPtr revIDLastSave="282" documentId="8_{84D40B20-1EE2-4DDC-AC3C-910195B76512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A6B82C0-7435-4BC7-9581-85B63E0E421F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13597" uniqueCount="4753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13600" uniqueCount="4753">
   <si>
     <t>Empresa</t>
   </si>
@@ -15271,8 +15271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D511A0-FAB5-43C4-9459-7F69F577055E}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16041,7 +16041,9 @@
       <c r="B74" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C74" s="24"/>
+      <c r="C74" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="50" t="s">
@@ -16050,7 +16052,9 @@
       <c r="B75" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C75" s="41"/>
+      <c r="C75" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="49" t="s">
@@ -16059,7 +16063,9 @@
       <c r="B76" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C76" s="24"/>
+      <c r="C76" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="49" t="s">
